--- a/biology/Médecine/1386_en_santé_et_médecine/1386_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1386_en_santé_et_médecine/1386_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1386_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1386_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1386 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1386_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1386_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>22 mars : Bendit Caravida, médecin juif de Pierre IV, roi d'Aragon, est examiné par Bérenger Candeli (fl. 1362-1386), bachelier en médecine de l'université de Montpellier établi à Barcelone, et par Humer Tauell, médecin juif de Valence[1], examen qui porte non seulement sur la médecine, mais encore « sur la philosophie, sur les sciences naturelles et sur un point d'astrologie[2] ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>22 mars : Bendit Caravida, médecin juif de Pierre IV, roi d'Aragon, est examiné par Bérenger Candeli (fl. 1362-1386), bachelier en médecine de l'université de Montpellier établi à Barcelone, et par Humer Tauell, médecin juif de Valence, examen qui porte non seulement sur la médecine, mais encore « sur la philosophie, sur les sciences naturelles et sur un point d'astrologie ».
 18 octobre : messe d'inauguration de l'université de Heidelberg, en Allemagne, qui ouvre ses portes dès le lendemain, mais dont la chaire de médecine ne sera pourvue qu'en 1388.
-Les Cisterciens fondent un hôpital à Markina-Xemein, en Biscaye, sur le Chemin du Nord du pèlerinage de Compostelle[3],[4], « pour le soulagement des pauvres, afin que soient accomplies les sept œuvres de miséricorde[5] ».
-Fondation de l'hôpital de Saint-Antoine en Viennois, par Guignon Jay, pour six vieillards ou infirmes[6].
-Jean Durand est reçu licencié en médecine à Paris, alors qu'il est déjà médecin de Philippe le Hardi, duc de Bourgogne[1].</t>
+Les Cisterciens fondent un hôpital à Markina-Xemein, en Biscaye, sur le Chemin du Nord du pèlerinage de Compostelle « pour le soulagement des pauvres, afin que soient accomplies les sept œuvres de miséricorde ».
+Fondation de l'hôpital de Saint-Antoine en Viennois, par Guignon Jay, pour six vieillards ou infirmes.
+Jean Durand est reçu licencié en médecine à Paris, alors qu'il est déjà médecin de Philippe le Hardi, duc de Bourgogne.</t>
         </is>
       </c>
     </row>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1386_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1386_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,12 +559,14 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Fl. Claus Vendenheim, baigneur à Strasbourg[1].
-Fl. Guillaume Jacob et Jean Des Patis, barbiers à Amiens[1].
-1386-1408 : fl. Aubry Jacometi, barbier à Avignon, originaire de Toul[1].
-1386-1399 (1411 ?) : fl. Jean Du Pont, « mire sermenté » et « surgien » à Reims, soigne en 1389 l'archevêque Richard Picque dans sa dernière maladie[1].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Fl. Claus Vendenheim, baigneur à Strasbourg.
+Fl. Guillaume Jacob et Jean Des Patis, barbiers à Amiens.
+1386-1408 : fl. Aubry Jacometi, barbier à Avignon, originaire de Toul.
+1386-1399 (1411 ?) : fl. Jean Du Pont, « mire sermenté » et « surgien » à Reims, soigne en 1389 l'archevêque Richard Picque dans sa dernière maladie.</t>
         </is>
       </c>
     </row>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1386_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1386_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,9 +594,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean Boutevillain (date de naissance inconnue), maître en médecine de l'université de Paris, médecin du duc de Bavière[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Boutevillain (date de naissance inconnue), maître en médecine de l'université de Paris, médecin du duc de Bavière.
 </t>
         </is>
       </c>
